--- a/biology/Zoologie/Cyrtopholis_bartholomaei/Cyrtopholis_bartholomaei.xlsx
+++ b/biology/Zoologie/Cyrtopholis_bartholomaei/Cyrtopholis_bartholomaei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtopholis bartholomaei est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtopholis bartholomaei est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Antilles[1]. Elle se rencontre à Saint Thomas et à Antigua.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Antilles. Elle se rencontre à Saint Thomas et à Antigua.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Latreille, 1832 : Vues générales sur les araneides à quatre pneumobranches ou quadripulmonaires, suivies d'une notice de quelques espèces de mygales inédites et de l'habitation de celle que l'on nomme nidulans. Nouvelles annales du Muséum d'histoire naturelle, vol. 1, p. 61-76 (texte intégral).</t>
         </is>
